--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>224616.866843841</v>
+        <v>221737.3537702063</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8626242.131105015</v>
+        <v>8626242.131104987</v>
       </c>
     </row>
     <row r="8">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>383.8448579601187</v>
       </c>
       <c r="G2" t="n">
-        <v>316.9999378596057</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>139.5910650881145</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>9.0186500846252</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>161.1486436253825</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>228.0516997358844</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>310.2076895020999</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>48.91401559658141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>156.1271626621474</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>376.3603979271534</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>204.1186209319389</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481181</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089716</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229337</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>128.7835007017895</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>160.0179384138199</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>59.90320919298912</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>126.095523708391</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1816,7 +1816,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>123.9756974320796</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>222.1526784153805</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2296,16 +2296,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>194.0338686928872</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.4727252947976</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>79.89660740075907</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>14.20188851094988</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H26" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045447</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060082055</v>
       </c>
       <c r="T26" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374743</v>
       </c>
       <c r="U26" t="n">
         <v>250.9088959876463</v>
@@ -2646,10 +2646,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4224477376698</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561477</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952166</v>
       </c>
       <c r="T27" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3907690366108</v>
       </c>
       <c r="U27" t="n">
         <v>225.7492064608734</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,10 +2722,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>102.1854574632328</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108439</v>
       </c>
       <c r="S28" t="n">
-        <v>181.3384883584589</v>
+        <v>181.3384883584593</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4819944627619</v>
       </c>
       <c r="U28" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
-        <v>160.7759248422016</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H29" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045447</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060082055</v>
       </c>
       <c r="T29" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374743</v>
       </c>
       <c r="U29" t="n">
         <v>250.9088959876463</v>
@@ -2883,10 +2883,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4224477376698</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561477</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952166</v>
       </c>
       <c r="T30" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3907690366108</v>
       </c>
       <c r="U30" t="n">
         <v>225.7492064608734</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>83.55410938281739</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>81.37259901119562</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108439</v>
       </c>
       <c r="S31" t="n">
-        <v>181.3384883584589</v>
+        <v>181.3384883584593</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4819944627619</v>
       </c>
       <c r="U31" t="n">
         <v>286.1854515484204</v>
@@ -3044,7 +3044,7 @@
         <v>409.8432760127577</v>
       </c>
       <c r="H32" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045447</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060082055</v>
       </c>
       <c r="T32" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374743</v>
       </c>
       <c r="U32" t="n">
         <v>250.9088959876463</v>
@@ -3120,10 +3120,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4224477376698</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561477</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952166</v>
       </c>
       <c r="T33" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3907690366108</v>
       </c>
       <c r="U33" t="n">
         <v>225.7492064608734</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>23.94516103139618</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,7 +3196,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.18075159108439</v>
       </c>
       <c r="S34" t="n">
-        <v>181.3384883584591</v>
+        <v>116.2771247230643</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4819944627619</v>
       </c>
       <c r="U34" t="n">
         <v>286.1854515484204</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>140.3074752009589</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>112.7304175246786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1582.033850770379</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1213.071333829968</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>854.8056352232171</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>854.8056352232171</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>854.8056352232171</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592771</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1972.173182746191</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1582.033850770379</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4401,22 +4401,22 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.965822962985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>210.965822962985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>210.965822962985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>63.05272938059193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>216.719389522771</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610024</v>
+        <v>216.719389522771</v>
       </c>
       <c r="X4" t="n">
-        <v>210.965822962985</v>
+        <v>216.719389522771</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.965822962985</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.603060210037</v>
+        <v>709.2075429298502</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696253</v>
+        <v>709.2075429298502</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696253</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>478.852290671381</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W5" t="n">
-        <v>2383.80799051105</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>2010.34223224997</v>
+        <v>1485.946714969784</v>
       </c>
       <c r="Y5" t="n">
-        <v>1620.202900274159</v>
+        <v>1095.807382993972</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>261.0994509500377</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>103.3510783825679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1739.708500331689</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="C8" t="n">
-        <v>1370.745983391278</v>
+        <v>1568.629239003654</v>
       </c>
       <c r="D8" t="n">
-        <v>1012.480284784527</v>
+        <v>1210.363540396903</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>824.575287798659</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>413.5893830090515</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4799,55 +4799,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.9429818203644</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224071</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977173</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642687</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.69155979125</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.14909101822</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548713</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862883</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862883</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862883</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862883</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592769</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.708500331689</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y8" t="n">
-        <v>1739.708500331689</v>
+        <v>1937.591755944065</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.9429818203644</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.9429818203644</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614628</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571344</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915165</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517454</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537798</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.9429818203644</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>53.9429818203644</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>53.9429818203644</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.9429818203644</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.9429818203644</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.9429818203644</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.9429818203644</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.9429818203644</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.9429818203644</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477908</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658206</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502495</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594895</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064336</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064336</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064336</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>598.0446400632119</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W10" t="n">
-        <v>53.9429818203644</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X10" t="n">
-        <v>53.9429818203644</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.9429818203644</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5024,13 +5024,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5042,25 +5042,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
         <v>4778.05172241972</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>432.2000540015823</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839441</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1895.835173990573</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1606.732307116217</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1352.04781891033</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>1062.630648873369</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>834.6410979753522</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>613.848518831822</v>
+        <v>264.4972173763013</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5279,22 +5279,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2265.5904835978</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2812.369300656582</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232731</v>
+        <v>3692.333950986037</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188665</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839441</v>
@@ -5358,7 +5358,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
         <v>794.2006632320243</v>
@@ -5388,7 +5388,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5464,19 +5464,19 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
         <v>277.2094992786341</v>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5498,7 +5498,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
@@ -5516,25 +5516,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1002.806306216375</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1453.840519464783</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294612</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353394</v>
+        <v>3362.809616117415</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232731</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
         <v>4778.05172241972</v>
@@ -5549,16 +5549,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5598,7 +5598,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8133219477185</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C19" t="n">
-        <v>803.8133219477185</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839441</v>
@@ -5698,25 +5698,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1667.240599230347</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>1377.823429193387</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>1149.833878295369</v>
+        <v>485.2897965198314</v>
       </c>
       <c r="Y19" t="n">
-        <v>929.0412991518393</v>
+        <v>264.4972173763013</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5735,13 +5735,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,25 +5750,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.214217867999</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N20" t="n">
-        <v>3316.966490094645</v>
+        <v>3044.228895027647</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862918</v>
@@ -5786,16 +5786,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5832,10 +5832,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>339.1038984121913</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839441</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.788099626699</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>964.3709295897388</v>
+        <v>713.2793474178487</v>
       </c>
       <c r="X22" t="n">
-        <v>736.3813786917215</v>
+        <v>485.2897965198314</v>
       </c>
       <c r="Y22" t="n">
-        <v>520.752363242431</v>
+        <v>264.4972173763013</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5963,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3496.417082105038</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3999.389552984375</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4394.163919341553</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862918</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6087,7 +6087,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,22 +6096,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>590.4396319794996</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C25" t="n">
-        <v>421.5034490515927</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>421.5034490515927</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>273.5903554691996</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>273.5903554691996</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>273.5903554691996</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839441</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1220.870226851287</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>1220.870226851287</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X25" t="n">
-        <v>992.8806759532695</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.0880968097393</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D26" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.03297828421</v>
       </c>
       <c r="E26" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963584</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127654</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160866</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.8483481516071</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507167</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074383934</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944162</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883192</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.783927800291</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610256</v>
+        <v>3654.445485610273</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297605</v>
+        <v>4202.751434297616</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403619</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580355</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347203</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.740996026521</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="27">
@@ -6279,61 +6279,61 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294091</v>
       </c>
       <c r="C27" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482821</v>
       </c>
       <c r="D27" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870308</v>
       </c>
       <c r="E27" t="n">
-        <v>461.0359474815749</v>
+        <v>461.0359474815752</v>
       </c>
       <c r="F27" t="n">
-        <v>314.5013895084599</v>
+        <v>314.5013895084602</v>
       </c>
       <c r="G27" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683897</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160703</v>
+        <v>93.8483481516071</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160703</v>
+        <v>93.8483481516071</v>
       </c>
       <c r="J27" t="n">
-        <v>241.4963299034533</v>
+        <v>241.496329903451</v>
       </c>
       <c r="K27" t="n">
-        <v>572.0050724668126</v>
+        <v>572.0050724668064</v>
       </c>
       <c r="L27" t="n">
-        <v>1062.737405310565</v>
+        <v>1062.737405310553</v>
       </c>
       <c r="M27" t="n">
-        <v>1654.755759562693</v>
+        <v>1062.737405310553</v>
       </c>
       <c r="N27" t="n">
-        <v>2276.85172296203</v>
+        <v>1552.026157035598</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.812354695766</v>
+        <v>2098.902632035787</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461859</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461859</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695768</v>
       </c>
       <c r="S27" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U27" t="n">
         <v>2016.877442379908</v>
@@ -6342,10 +6342,10 @@
         <v>1781.725334148165</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.487977419963</v>
+        <v>1527.487977419964</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y27" t="n">
         <v>1111.876178449477</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.9184063975742</v>
+        <v>495.0957149475812</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9822234696674</v>
+        <v>495.0957149475812</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8655840573316</v>
+        <v>344.9790755352454</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9524904749385</v>
+        <v>197.0659819528523</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0625429770282</v>
+        <v>197.0659819528523</v>
       </c>
       <c r="G28" t="n">
-        <v>93.84834815160703</v>
+        <v>93.8483481516071</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160703</v>
+        <v>93.8483481516071</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160703</v>
+        <v>93.8483481516071</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411597</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117213</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948528</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139309</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931013</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.16893094604</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.699365782243</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335676</v>
       </c>
       <c r="R28" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294177</v>
       </c>
       <c r="S28" t="n">
-        <v>2246.242309074627</v>
+        <v>2178.382964033107</v>
       </c>
       <c r="T28" t="n">
-        <v>2246.242309074627</v>
+        <v>1958.704181747489</v>
       </c>
       <c r="U28" t="n">
-        <v>1957.166095389354</v>
+        <v>1669.627968062216</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.766171306322</v>
+        <v>1414.943479856329</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.349001269361</v>
+        <v>1125.526309819368</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.359450371344</v>
+        <v>897.5367589213511</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.566871227814</v>
+        <v>676.7441797778209</v>
       </c>
     </row>
     <row r="29">
@@ -6449,43 +6449,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127634</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8483481516069</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160551</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507151</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074383918</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.49438794416</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883191</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.783927800325</v>
+        <v>2971.58344915114</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610271</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297614</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.53409905282</v>
+        <v>4566.333620403617</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S29" t="n">
         <v>4606.950144347201</v>
@@ -6516,61 +6516,61 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C30" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D30" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E30" t="n">
-        <v>461.0359474815749</v>
+        <v>461.0359474815751</v>
       </c>
       <c r="F30" t="n">
-        <v>314.5013895084599</v>
+        <v>314.5013895084601</v>
       </c>
       <c r="G30" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683897</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J30" t="n">
-        <v>241.4963299034533</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="K30" t="n">
-        <v>572.0050724668126</v>
+        <v>163.4947075553436</v>
       </c>
       <c r="L30" t="n">
-        <v>1062.737405310565</v>
+        <v>654.2270403990901</v>
       </c>
       <c r="M30" t="n">
-        <v>1654.755759562693</v>
+        <v>1246.245394651212</v>
       </c>
       <c r="N30" t="n">
-        <v>2276.85172296203</v>
+        <v>1868.341358050543</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050543</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461859</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695768</v>
       </c>
       <c r="S30" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U30" t="n">
         <v>2016.877442379908</v>
@@ -6582,7 +6582,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y30" t="n">
         <v>1111.876178449477</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>495.0957149476028</v>
+        <v>495.0957149475812</v>
       </c>
       <c r="C31" t="n">
-        <v>326.1595320196959</v>
+        <v>326.1595320196743</v>
       </c>
       <c r="D31" t="n">
-        <v>176.0428926073602</v>
+        <v>241.7614417340002</v>
       </c>
       <c r="E31" t="n">
-        <v>176.0428926073602</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="F31" t="n">
-        <v>176.0428926073602</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="G31" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411597</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117212</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948528</v>
       </c>
       <c r="M31" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139309</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931013</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.16893094604</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.699365782243</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335676</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294177</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033107</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747489</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062216</v>
       </c>
       <c r="V31" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856329</v>
       </c>
       <c r="W31" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819368</v>
       </c>
       <c r="X31" t="n">
-        <v>897.5367589213727</v>
+        <v>897.5367589213511</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.7441797778425</v>
+        <v>676.7441797778209</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C32" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D32" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E32" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963571</v>
+        <v>794.2588208963557</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127636</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160777</v>
+        <v>93.84834815160707</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160552</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507151</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074383984</v>
+        <v>893.7741287892419</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944171</v>
+        <v>1513.29390929501</v>
       </c>
       <c r="M32" t="n">
-        <v>2234.298471234026</v>
+        <v>2234.298471234041</v>
       </c>
       <c r="N32" t="n">
-        <v>2971.58344915113</v>
+        <v>2971.58344915114</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.445485610265</v>
+        <v>3654.445485610271</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.751434297611</v>
+        <v>4202.751434297614</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403616</v>
+        <v>4566.333620403617</v>
       </c>
       <c r="R32" t="n">
         <v>4692.417407580353</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U32" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V32" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W32" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X32" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="33">
@@ -6762,46 +6762,46 @@
         <v>620.2734024870306</v>
       </c>
       <c r="E33" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815751</v>
       </c>
       <c r="F33" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084601</v>
       </c>
       <c r="G33" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683897</v>
       </c>
       <c r="H33" t="n">
         <v>93.84834815160706</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160706</v>
+        <v>94.8873807261289</v>
       </c>
       <c r="J33" t="n">
-        <v>241.4963299034522</v>
+        <v>242.5353624779728</v>
       </c>
       <c r="K33" t="n">
-        <v>572.0050724668096</v>
+        <v>573.0441050413282</v>
       </c>
       <c r="L33" t="n">
-        <v>1062.737405310559</v>
+        <v>573.0441050413282</v>
       </c>
       <c r="M33" t="n">
-        <v>1654.755759562684</v>
+        <v>1165.062459293451</v>
       </c>
       <c r="N33" t="n">
-        <v>2006.935879695575</v>
+        <v>1552.026157035598</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.812354695767</v>
+        <v>2098.902632035787</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.812354695767</v>
+        <v>2518.486150461859</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.812354695767</v>
+        <v>2518.486150461859</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695768</v>
       </c>
       <c r="S33" t="n">
         <v>2435.200649953124</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>562.9550599890908</v>
+        <v>560.8142640742428</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7680286442462</v>
+        <v>391.8780811463359</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6513892319105</v>
+        <v>241.7614417340002</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7382956495174</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="F34" t="n">
         <v>93.84834815160706</v>
@@ -6856,52 +6856,52 @@
         <v>93.84834815160706</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411597</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117212</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948528</v>
       </c>
       <c r="M34" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139309</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931013</v>
       </c>
       <c r="O34" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.16893094604</v>
       </c>
       <c r="P34" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.699365782243</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335676</v>
       </c>
       <c r="R34" t="n">
-        <v>2429.412499335687</v>
+        <v>2361.553154294177</v>
       </c>
       <c r="S34" t="n">
-        <v>2246.242309074617</v>
+        <v>2244.101513159769</v>
       </c>
       <c r="T34" t="n">
-        <v>2026.563526788999</v>
+        <v>2024.422730874151</v>
       </c>
       <c r="U34" t="n">
-        <v>1737.487313103726</v>
+        <v>1735.346517188878</v>
       </c>
       <c r="V34" t="n">
-        <v>1482.802824897839</v>
+        <v>1480.662028982991</v>
       </c>
       <c r="W34" t="n">
-        <v>1193.385654860878</v>
+        <v>1191.24485894603</v>
       </c>
       <c r="X34" t="n">
-        <v>965.3961039628607</v>
+        <v>963.2553080480127</v>
       </c>
       <c r="Y34" t="n">
-        <v>744.6035248193306</v>
+        <v>742.4627289044826</v>
       </c>
     </row>
     <row r="35">
@@ -6932,16 +6932,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6953,7 +6953,7 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>762.5477693179085</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5477693179085</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4311299055728</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5180363231797</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6280888252693</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7391,46 +7391,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M42" t="n">
-        <v>1025.119922845744</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7728,25 +7728,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050815</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028846</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8690,28 +8690,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>413.6699759607831</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,25 +8927,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>82.70159106555684</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9164,28 +9164,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>219.3344627260154</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>314.5564971416978</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9410,16 +9410,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>316.9032015413803</v>
       </c>
       <c r="O20" t="n">
-        <v>258.6211785616921</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9647,16 +9647,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>77.35795430877036</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>51.31264782908238</v>
+        <v>51.31264782914207</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>51.31264782914104</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>51.31264782908309</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,13 +10349,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>51.31264782914144</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>51.31264782911217</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="G2" t="n">
-        <v>96.78423216118934</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>75.0181840499024</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>57.43600972671229</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,13 +23422,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465701</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>159.6457400831801</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>92.48912964370376</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465701</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.85628274985766</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23938,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238275</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>3.556976973656674</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,10 +24142,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>92.48912964370379</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.111928057297234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>64.85840751356172</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>272.3211098256411</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>63.35659541393416</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>140.4539897919541</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440957</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>91.36171848162641</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>65.06136363539497</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>84.16945386597131</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>140.4539897919541</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440957</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>143.3016600672317</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919541</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440925</v>
+        <v>81.80457674440957</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.1807515910839</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>65.06136363539497</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>25.21666309130995</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>112.9792378643585</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1138952.662306869</v>
+        <v>1138952.662306871</v>
       </c>
     </row>
     <row r="3">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1073738.852344345</v>
+        <v>1073738.852344344</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>345435.9249908654</v>
+        <v>345435.9249908659</v>
       </c>
       <c r="C2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923206</v>
       </c>
       <c r="E2" t="n">
         <v>337519.5188539357</v>
@@ -26329,31 +26329,31 @@
         <v>337519.5188539358</v>
       </c>
       <c r="H2" t="n">
-        <v>337519.5188539357</v>
+        <v>337519.5188539358</v>
       </c>
       <c r="I2" t="n">
         <v>337519.5188539357</v>
       </c>
       <c r="J2" t="n">
-        <v>342840.2652753879</v>
+        <v>342840.2652753876</v>
       </c>
       <c r="K2" t="n">
-        <v>342840.2652753879</v>
+        <v>342840.2652753875</v>
       </c>
       <c r="L2" t="n">
-        <v>342840.2652753876</v>
+        <v>342840.2652753875</v>
       </c>
       <c r="M2" t="n">
         <v>343037.3048682529</v>
       </c>
       <c r="N2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682525</v>
       </c>
       <c r="O2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682529</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934073</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>369281.343386963</v>
+        <v>369281.3433869546</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.397933367659182e-09</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>136530.2358202886</v>
+        <v>136530.2358202924</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.139184627798386e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196354.9023835021</v>
+        <v>196354.9023835028</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="F4" t="n">
         <v>25090.7236749938</v>
@@ -26439,22 +26439,22 @@
         <v>25090.72367499381</v>
       </c>
       <c r="J4" t="n">
-        <v>5781.971894854996</v>
+        <v>5781.971894855827</v>
       </c>
       <c r="K4" t="n">
-        <v>5781.971894855006</v>
+        <v>5781.971894855813</v>
       </c>
       <c r="L4" t="n">
-        <v>5781.971894855411</v>
+        <v>5781.971894855818</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670436</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670418</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.59260167046</v>
+        <v>5067.592601670391</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
@@ -26491,13 +26491,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572384</v>
       </c>
       <c r="K5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572384</v>
       </c>
       <c r="L5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572384</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-523745.9346705907</v>
+        <v>-523766.5630658935</v>
       </c>
       <c r="C6" t="n">
-        <v>65019.16820117953</v>
+        <v>65019.16820117948</v>
       </c>
       <c r="D6" t="n">
-        <v>65019.16820117988</v>
+        <v>65019.16820117961</v>
       </c>
       <c r="E6" t="n">
-        <v>-511332.137068179</v>
+        <v>-511399.3325584041</v>
       </c>
       <c r="F6" t="n">
-        <v>216045.2769252284</v>
+        <v>215978.0814350025</v>
       </c>
       <c r="G6" t="n">
-        <v>216045.2769252283</v>
+        <v>215978.0814350025</v>
       </c>
       <c r="H6" t="n">
-        <v>216045.2769252283</v>
+        <v>215978.0814350025</v>
       </c>
       <c r="I6" t="n">
-        <v>216045.2769252283</v>
+        <v>215978.0814350025</v>
       </c>
       <c r="J6" t="n">
-        <v>-133153.0894636687</v>
+        <v>-133188.9864455256</v>
       </c>
       <c r="K6" t="n">
-        <v>236128.2539232943</v>
+        <v>236092.3569414291</v>
       </c>
       <c r="L6" t="n">
-        <v>236128.2539232977</v>
+        <v>236092.356941429</v>
       </c>
       <c r="M6" t="n">
-        <v>100316.9466223868</v>
+        <v>100282.2086969473</v>
       </c>
       <c r="N6" t="n">
-        <v>236847.1824426753</v>
+        <v>236812.444517239</v>
       </c>
       <c r="O6" t="n">
-        <v>236847.1824426751</v>
+        <v>236812.4445172393</v>
       </c>
       <c r="P6" t="n">
-        <v>236847.182442675</v>
+        <v>236812.4445172396</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170868</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170862</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26759,13 +26759,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716376</v>
       </c>
       <c r="K3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716376</v>
       </c>
       <c r="L3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716376</v>
       </c>
       <c r="M3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.287272754555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26811,7 +26811,7 @@
         <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
-        <v>1173.104351895088</v>
+        <v>1173.104351895089</v>
       </c>
       <c r="K4" t="n">
         <v>1173.104351895088</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762121</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,25 +26981,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>268.2643481230889</v>
+        <v>268.2643481230773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.715182864821207e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9.93445162529224</v>
+        <v>9.934451625297925</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.225657850375</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>652.8786940447133</v>
+        <v>652.8786940447142</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.8295940549351</v>
+        <v>519.8295940549344</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.225657850375</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,20 +27379,20 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>230.1400355903545</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>136.4023979383061</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>81.15270479189275</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>126.6313418847986</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>39.03327921531314</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>86.05160619575685</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787155</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.569972145108409</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>209.6655490888561</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,10 +27910,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853705</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491437</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>157.4983735401882</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>58.56671493827486</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.56319401867222e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>5.184593495262864e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255446</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081575</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630667</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405364</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338301</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954664</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044135</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633787</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473546</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141101</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188906</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890686</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396467</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478005</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034976</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619147</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078603</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644435</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813572</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302231</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175834</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383791</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678002</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.6281993970116</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695334</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315606</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32078,7 +32078,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32318,7 +32318,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233475</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32567,7 +32567,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377385</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122241</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704043</v>
       </c>
       <c r="J26" t="n">
-        <v>463.364970687407</v>
+        <v>463.364970687403</v>
       </c>
       <c r="K26" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830379</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364274</v>
+        <v>861.54397103642</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293237</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229535</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086883</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687466</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148563</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987137</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854248</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665702</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.4367569201901907</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540884</v>
       </c>
       <c r="H27" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088169</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735798</v>
       </c>
       <c r="K27" t="n">
-        <v>471.688653684823</v>
+        <v>471.6886536848189</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745677</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504309</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927647</v>
+        <v>625.5727744318635</v>
       </c>
       <c r="O27" t="n">
-        <v>422.3544583169052</v>
+        <v>694.9967242426153</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982412</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>181.36253854367</v>
       </c>
       <c r="S27" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086212</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821084</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.192175620101374</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291825</v>
       </c>
       <c r="H28" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548551</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284871</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273335</v>
+        <v>173.139102227332</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900865</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640592</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574264993</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416847</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465937</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282402</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561727</v>
       </c>
       <c r="R28" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860851</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851297</v>
       </c>
       <c r="T28" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551961</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704633</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377385</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122241</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704043</v>
       </c>
       <c r="J29" t="n">
-        <v>463.364970687407</v>
+        <v>463.364970687403</v>
       </c>
       <c r="K29" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830379</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364274</v>
+        <v>861.54397103642</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293237</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229535</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086883</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687466</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148563</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987137</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854248</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665702</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.4367569201901907</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540884</v>
       </c>
       <c r="H30" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088169</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>275.9770021735821</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>471.688653684823</v>
+        <v>208.1912969579312</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745677</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504246</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927582</v>
       </c>
       <c r="O30" t="n">
-        <v>422.3544583169052</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982412</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286924</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>181.36253854367</v>
       </c>
       <c r="S30" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086212</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821084</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.192175620101374</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291825</v>
       </c>
       <c r="H31" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548551</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284871</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273335</v>
+        <v>173.139102227332</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900865</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640592</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574264993</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416847</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465937</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282402</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561727</v>
       </c>
       <c r="R31" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860851</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851297</v>
       </c>
       <c r="T31" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551961</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704633</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377385</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122241</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704043</v>
       </c>
       <c r="J32" t="n">
-        <v>463.364970687405</v>
+        <v>463.364970687403</v>
       </c>
       <c r="K32" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830379</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364237</v>
+        <v>861.54397103642</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293237</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229535</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086883</v>
       </c>
       <c r="P32" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687466</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148563</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987137</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854248</v>
       </c>
       <c r="T32" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665702</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.4367569201901907</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540884</v>
       </c>
       <c r="H33" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088169</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530524</v>
       </c>
       <c r="J33" t="n">
-        <v>275.977002173581</v>
+        <v>275.9770021735798</v>
       </c>
       <c r="K33" t="n">
-        <v>471.688653684821</v>
+        <v>471.6886536848189</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745706</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504278</v>
+        <v>740.1323715504246</v>
       </c>
       <c r="N33" t="n">
-        <v>487.0792071670608</v>
+        <v>522.2141340450984</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426184</v>
+        <v>694.9967242426153</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982412</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>181.36253854367</v>
       </c>
       <c r="S33" t="n">
-        <v>54.25758340862144</v>
+        <v>54.2575834086212</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821084</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.192175620101374</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291825</v>
       </c>
       <c r="H34" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548551</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284871</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1391022273327</v>
+        <v>173.139102227332</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900865</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640592</v>
       </c>
       <c r="M34" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574264993</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416847</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465937</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282402</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561727</v>
       </c>
       <c r="R34" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860851</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851297</v>
       </c>
       <c r="T34" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551961</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704633</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>228.3420541567486</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>338.130958502898</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530449</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898687</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713855</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932211</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713946</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873139</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>952.5910917910098</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>621.6227068957836</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35726,7 +35726,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35884,28 +35884,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>556.5257492814159</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>866.8583325546093</v>
       </c>
       <c r="O17" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013292</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
@@ -36130,16 +36130,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>869.2050369542918</v>
       </c>
       <c r="O20" t="n">
-        <v>766.6741794499112</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36200,7 +36200,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36215,7 +36215,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
@@ -36367,16 +36367,16 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>328.1522591124898</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-8.805251383379312e-13</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607167</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380573</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664327</v>
       </c>
       <c r="M26" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302051</v>
       </c>
       <c r="N26" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263625</v>
       </c>
       <c r="O26" t="n">
-        <v>741.0722806160918</v>
+        <v>741.0722806161436</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134771</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404068</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069131</v>
       </c>
       <c r="K27" t="n">
-        <v>333.847214710464</v>
+        <v>333.8472147104599</v>
       </c>
       <c r="L27" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946935</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284126</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094314</v>
+        <v>494.2310623485302</v>
       </c>
       <c r="O27" t="n">
-        <v>279.7582138724608</v>
+        <v>552.4004797981709</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>423.821735783911</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.68303457970606</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211065921</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642036</v>
       </c>
       <c r="L28" t="n">
-        <v>391.6786041243784</v>
+        <v>391.6786041243753</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883399</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209132</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606334</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931337</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044783</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607167</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380573</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664327</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302051</v>
       </c>
       <c r="N29" t="n">
-        <v>744.732300926371</v>
+        <v>796.0449487555036</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870016</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134771</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404068</v>
       </c>
       <c r="R29" t="n">
-        <v>178.6700086136676</v>
+        <v>127.3573607845816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>149.1393755069154</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>333.847214710464</v>
+        <v>70.34985798357222</v>
       </c>
       <c r="L30" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946935</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284063</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094249</v>
       </c>
       <c r="O30" t="n">
-        <v>279.7582138724608</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>423.821735783911</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>232.8901757426709</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.68303457970606</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211065921</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642036</v>
       </c>
       <c r="L31" t="n">
-        <v>391.6786041243784</v>
+        <v>391.6786041243753</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883399</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209132</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606334</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931337</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044783</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607167</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380603</v>
+        <v>525.6867728671988</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664327</v>
       </c>
       <c r="M32" t="n">
-        <v>779.6000841311674</v>
+        <v>728.287436302051</v>
       </c>
       <c r="N32" t="n">
-        <v>744.7323009263669</v>
+        <v>744.7323009263625</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870016</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134771</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404068</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845831</v>
+        <v>127.3573607845816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.049527853052368</v>
       </c>
       <c r="J33" t="n">
-        <v>149.1393755069143</v>
+        <v>149.1393755069131</v>
       </c>
       <c r="K33" t="n">
-        <v>333.847214710462</v>
+        <v>333.8472147104599</v>
       </c>
       <c r="L33" t="n">
-        <v>495.6892250946964</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284094</v>
+        <v>597.9983376284063</v>
       </c>
       <c r="N33" t="n">
-        <v>355.7374950837274</v>
+        <v>390.872421961765</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981739</v>
+        <v>552.4004797981709</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>423.821735783911</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.68303457970606</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211065921</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642036</v>
       </c>
       <c r="L34" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243753</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883399</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209132</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606334</v>
       </c>
       <c r="P34" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931337</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044783</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>97.00034207341533</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>206.7892464195647</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
